--- a/22881.xlsx
+++ b/22881.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barryp/work/JAM/fitpack2/database/proton_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF74BFD2-A8C0-0248-B5FD-A915738928EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229C0971-403F-C349-B4B4-BEBF43AFEED9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8480" yWindow="5400" windowWidth="27240" windowHeight="14360" xr2:uid="{36F8C7AD-8A08-4C4F-859F-62114E017E0C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="23">
   <si>
     <t>pT_min</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>bin4_c</t>
+  </si>
+  <si>
+    <t>norm_c</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901D04B3-5AA6-704E-B05A-2C52B3F08299}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,7 +498,7 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -538,17 +541,20 @@
       <c r="N1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>200</v>
       </c>
@@ -592,17 +598,20 @@
       <c r="N2" s="3">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>11</v>
+      <c r="O2" s="3">
+        <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>200</v>
       </c>
@@ -646,17 +655,20 @@
       <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>11</v>
+      <c r="O3" s="3">
+        <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>200</v>
       </c>
@@ -700,17 +712,20 @@
       <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>11</v>
+      <c r="O4" s="3">
+        <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>200</v>
       </c>
@@ -754,17 +769,20 @@
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>11</v>
+      <c r="O5" s="3">
+        <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>200</v>
       </c>
@@ -808,17 +826,20 @@
       <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>11</v>
+      <c r="O6" s="3">
+        <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>200</v>
       </c>
@@ -862,17 +883,20 @@
       <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>11</v>
+      <c r="O7" s="3">
+        <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>200</v>
       </c>
@@ -916,17 +940,20 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>11</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>200</v>
       </c>
@@ -970,17 +997,20 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>11</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>200</v>
       </c>
@@ -1024,17 +1054,20 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>11</v>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>200</v>
       </c>
@@ -1078,17 +1111,20 @@
       <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>11</v>
+      <c r="O11" s="3">
+        <v>0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>200</v>
       </c>
@@ -1132,17 +1168,20 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>11</v>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>200</v>
       </c>
@@ -1186,17 +1225,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>11</v>
+      <c r="O13" s="3">
+        <v>0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>200</v>
       </c>
@@ -1240,17 +1282,20 @@
         <f>0.25*I14</f>
         <v>2.3625E-2</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>11</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>200</v>
       </c>
@@ -1294,17 +1339,20 @@
         <f t="shared" ref="N15:N19" si="2">0.25*I15</f>
         <v>2.2525000000000003E-2</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>11</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>200</v>
       </c>
@@ -1348,17 +1396,20 @@
         <f t="shared" si="2"/>
         <v>1.755E-2</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>11</v>
+      <c r="O16" s="3">
+        <v>0</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>200</v>
       </c>
@@ -1402,17 +1453,20 @@
         <f t="shared" si="2"/>
         <v>1.3049999999999999E-2</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>11</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>200</v>
       </c>
@@ -1456,17 +1510,20 @@
         <f t="shared" si="2"/>
         <v>1.0275000000000001E-2</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>11</v>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>200</v>
       </c>
@@ -1510,13 +1567,16 @@
         <f t="shared" si="2"/>
         <v>7.4250000000000002E-3</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>11</v>
+      <c r="O19" s="3">
+        <v>0</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="1">
         <v>0.4</v>
       </c>
     </row>
